--- a/Assets/Resources/DialogExcel/Dlg_stage1_1.xlsx
+++ b/Assets/Resources/DialogExcel/Dlg_stage1_1.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/DialogExcel/Dlg_stage1_1.xlsx
+++ b/Assets/Resources/DialogExcel/Dlg_stage1_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Dlg_stage1_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,23 +78,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 대화 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목소리 대화 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어로 전환도 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폰트 Size 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폰트 Size 12</t>
+    <t>뭐해 문 안열고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 문 있잖아. 문을 열라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구세요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답답하긴… 이 상황에서 내가 누군지 궁금해??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 어디죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 궁금한게 많구나. 평소 수업시간엔 질문 하나 안하더니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실이 도대체 왜 이렇게 된거죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 알지 나는 몰라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 안다구요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말이 너무 많네. 너 원래 조용한 아이였잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 도대체 누구죠? 절 어서 원래 있던 곳으로 돌려보내 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저런 곳에 있는데 어떻게 가죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애처럼 하나하나 다 챙겨줘야 해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 내가 할 수 있는게 아니야. 일단 저 문 밖으로 나가는게 어때?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;시나리오 생략&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,25 +470,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -467,30 +511,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -498,13 +542,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -513,15 +557,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -536,15 +580,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -559,31 +603,281 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -598,9 +892,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -608,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
